--- a/processdoc/功能计划.xlsx
+++ b/processdoc/功能计划.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02.Mine\宽影\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkShop\Mine\testrepositorydoc\processdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="一期" sheetId="1" r:id="rId1"/>
@@ -108,40 +108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户登录（区分为管理员、ShopManager、Customer）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限细分和权限管理设置如何实现需要进一步研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前只关联邮箱，手机需要安装其他插件，需要研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有插件支持，目前使用第三方登录还有问题需要解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插件支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>待研究，如何使用W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ordPress个人资料页来实现</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,6 +208,26 @@
       <t>he7主题logo</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用membership插件可以满足权限划分的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用membership插件生成个人信息页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat social插件支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有WeChat social插件支持，目前使用第三方登录还有问题需要解决（APPID等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录（区分为管理员、ShopManager、Customer、Guest）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -307,10 +294,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,102 +637,102 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
+      <c r="A7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -753,8 +740,8 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -897,76 +884,76 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
